--- a/src/notes/DSA.xlsx
+++ b/src/notes/DSA.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\Downloads\code\CodeCounty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\CC_B1_Java\src\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99EE2F78-B4B4-4DDA-9CDA-947B16211D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057450C7-4124-480C-81D9-38C0E6B4EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{66337891-5822-498F-8DE1-20DD74AF1CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Logical Operators" sheetId="2" r:id="rId1"/>
     <sheet name="Integers" sheetId="3" r:id="rId2"/>
-    <sheet name="STACK" sheetId="1" r:id="rId3"/>
+    <sheet name="Bit Magic" sheetId="4" r:id="rId3"/>
+    <sheet name="STACK" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>A</t>
   </si>
@@ -247,13 +248,58 @@
   </si>
   <si>
     <t>TOTAL : x&gt;&gt;1</t>
+  </si>
+  <si>
+    <t>233 &amp; 1</t>
+  </si>
+  <si>
+    <t>odd</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>itr 1</t>
+  </si>
+  <si>
+    <t>157 &amp; 1</t>
+  </si>
+  <si>
+    <t>count++</t>
+  </si>
+  <si>
+    <t>itr 2</t>
+  </si>
+  <si>
+    <t>&gt;&gt; 1</t>
+  </si>
+  <si>
+    <t>signed right shift</t>
+  </si>
+  <si>
+    <t>Check If a number is odd or even using bitwise</t>
+  </si>
+  <si>
+    <t>If a bit value is 1 it is a set bit</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>calculate number of set bits for a given integer</t>
+  </si>
+  <si>
+    <t>n= 157</t>
+  </si>
+  <si>
+    <t>loop will go on till n becomes 0 by rightshifting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +385,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,8 +513,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -504,11 +586,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -545,7 +636,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,7 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,6 +669,37 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CD723D-1BBD-400C-9C2D-638878376B46}">
   <dimension ref="G5:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1244,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F667029-9610-45D3-831A-49F0F8CC7945}">
   <dimension ref="A7:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1289,80 +1409,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="35" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="35">
+    <row r="8" spans="1:20" s="33" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="33">
         <v>-7</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>-6</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>-5</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>-4</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>-3</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="33">
         <v>-2</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="33">
         <v>-1</v>
       </c>
-      <c r="I8" s="35">
-        <v>0</v>
-      </c>
-      <c r="J8" s="35">
-        <v>1</v>
-      </c>
-      <c r="K8" s="35">
+      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="J8" s="33">
+        <v>1</v>
+      </c>
+      <c r="K8" s="33">
         <v>2</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="33">
         <v>3</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="33">
         <v>4</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="33">
         <v>5</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="33">
         <v>6</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="33">
         <v>7</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="33">
         <v>8</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="33">
         <v>9</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="33">
         <v>10</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="21"/>
+      <c r="I12" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="21">
-        <v>0</v>
-      </c>
-      <c r="J13" s="21" t="s">
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1388,7 +1508,7 @@
       <c r="Q15" s="18"/>
     </row>
     <row r="18" spans="1:21" ht="21" x14ac:dyDescent="0.65">
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="25" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1396,52 +1516,52 @@
       <c r="A19" s="10">
         <v>15</v>
       </c>
-      <c r="B19" s="27">
-        <v>0</v>
-      </c>
-      <c r="C19" s="31">
-        <v>0</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="31">
-        <v>0</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-      <c r="G19" s="31">
-        <v>0</v>
-      </c>
-      <c r="H19" s="31">
-        <v>0</v>
-      </c>
-      <c r="I19" s="31">
-        <v>0</v>
-      </c>
-      <c r="J19" s="31">
-        <v>0</v>
-      </c>
-      <c r="K19" s="31">
-        <v>0</v>
-      </c>
-      <c r="L19" s="31">
-        <v>0</v>
-      </c>
-      <c r="M19" s="31">
-        <v>0</v>
-      </c>
-      <c r="N19" s="31">
-        <v>1</v>
-      </c>
-      <c r="O19" s="31">
-        <v>1</v>
-      </c>
-      <c r="P19" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="31">
+      <c r="B19" s="26">
+        <v>0</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29">
+        <v>0</v>
+      </c>
+      <c r="K19" s="29">
+        <v>0</v>
+      </c>
+      <c r="L19" s="29">
+        <v>0</v>
+      </c>
+      <c r="M19" s="29">
+        <v>0</v>
+      </c>
+      <c r="N19" s="29">
+        <v>1</v>
+      </c>
+      <c r="O19" s="29">
+        <v>1</v>
+      </c>
+      <c r="P19" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1459,52 +1579,52 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B29" s="27">
-        <v>0</v>
-      </c>
-      <c r="C29" s="31">
-        <v>0</v>
-      </c>
-      <c r="D29" s="31">
-        <v>0</v>
-      </c>
-      <c r="E29" s="31">
-        <v>0</v>
-      </c>
-      <c r="F29" s="31">
-        <v>0</v>
-      </c>
-      <c r="G29" s="31">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31">
-        <v>0</v>
-      </c>
-      <c r="I29" s="31">
-        <v>0</v>
-      </c>
-      <c r="J29" s="31">
-        <v>0</v>
-      </c>
-      <c r="K29" s="31">
-        <v>0</v>
-      </c>
-      <c r="L29" s="31">
-        <v>0</v>
-      </c>
-      <c r="M29" s="31">
-        <v>0</v>
-      </c>
-      <c r="N29" s="31">
-        <v>1</v>
-      </c>
-      <c r="O29" s="31">
-        <v>1</v>
-      </c>
-      <c r="P29" s="31">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="31">
+      <c r="B29" s="26">
+        <v>0</v>
+      </c>
+      <c r="C29" s="29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+      <c r="J29" s="29">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="29">
+        <v>1</v>
+      </c>
+      <c r="O29" s="29">
+        <v>1</v>
+      </c>
+      <c r="P29" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="29">
         <v>1</v>
       </c>
       <c r="S29" s="10" t="s">
@@ -1531,52 +1651,52 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B32" s="27">
-        <v>1</v>
-      </c>
-      <c r="C32" s="31">
-        <v>1</v>
-      </c>
-      <c r="D32" s="31">
-        <v>1</v>
-      </c>
-      <c r="E32" s="31">
-        <v>1</v>
-      </c>
-      <c r="F32" s="31">
-        <v>1</v>
-      </c>
-      <c r="G32" s="31">
-        <v>1</v>
-      </c>
-      <c r="H32" s="31">
-        <v>1</v>
-      </c>
-      <c r="I32" s="31">
-        <v>1</v>
-      </c>
-      <c r="J32" s="31">
-        <v>1</v>
-      </c>
-      <c r="K32" s="31">
-        <v>1</v>
-      </c>
-      <c r="L32" s="31">
-        <v>1</v>
-      </c>
-      <c r="M32" s="31">
-        <v>1</v>
-      </c>
-      <c r="N32" s="31">
-        <v>0</v>
-      </c>
-      <c r="O32" s="31">
-        <v>0</v>
-      </c>
-      <c r="P32" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="31">
+      <c r="B32" s="26">
+        <v>1</v>
+      </c>
+      <c r="C32" s="29">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1</v>
+      </c>
+      <c r="F32" s="29">
+        <v>1</v>
+      </c>
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
+      <c r="H32" s="29">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="J32" s="29">
+        <v>1</v>
+      </c>
+      <c r="K32" s="29">
+        <v>1</v>
+      </c>
+      <c r="L32" s="29">
+        <v>1</v>
+      </c>
+      <c r="M32" s="29">
+        <v>1</v>
+      </c>
+      <c r="N32" s="29">
+        <v>0</v>
+      </c>
+      <c r="O32" s="29">
+        <v>0</v>
+      </c>
+      <c r="P32" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="29">
         <v>0</v>
       </c>
       <c r="S32" s="10" t="s">
@@ -1587,7 +1707,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="Q34" s="25">
+      <c r="Q34" s="24">
         <v>1</v>
       </c>
     </row>
@@ -1595,7 +1715,7 @@
       <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1603,52 +1723,52 @@
       <c r="A36" s="10">
         <v>-15</v>
       </c>
-      <c r="B36" s="27">
-        <v>1</v>
-      </c>
-      <c r="C36" s="31">
-        <v>1</v>
-      </c>
-      <c r="D36" s="31">
-        <v>1</v>
-      </c>
-      <c r="E36" s="31">
-        <v>1</v>
-      </c>
-      <c r="F36" s="31">
-        <v>1</v>
-      </c>
-      <c r="G36" s="31">
-        <v>1</v>
-      </c>
-      <c r="H36" s="31">
-        <v>1</v>
-      </c>
-      <c r="I36" s="31">
-        <v>1</v>
-      </c>
-      <c r="J36" s="31">
-        <v>1</v>
-      </c>
-      <c r="K36" s="31">
-        <v>1</v>
-      </c>
-      <c r="L36" s="31">
-        <v>1</v>
-      </c>
-      <c r="M36" s="31">
-        <v>1</v>
-      </c>
-      <c r="N36" s="31">
-        <v>0</v>
-      </c>
-      <c r="O36" s="31">
-        <v>0</v>
-      </c>
-      <c r="P36" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="31">
+      <c r="B36" s="26">
+        <v>1</v>
+      </c>
+      <c r="C36" s="29">
+        <v>1</v>
+      </c>
+      <c r="D36" s="29">
+        <v>1</v>
+      </c>
+      <c r="E36" s="29">
+        <v>1</v>
+      </c>
+      <c r="F36" s="29">
+        <v>1</v>
+      </c>
+      <c r="G36" s="29">
+        <v>1</v>
+      </c>
+      <c r="H36" s="29">
+        <v>1</v>
+      </c>
+      <c r="I36" s="29">
+        <v>1</v>
+      </c>
+      <c r="J36" s="29">
+        <v>1</v>
+      </c>
+      <c r="K36" s="29">
+        <v>1</v>
+      </c>
+      <c r="L36" s="29">
+        <v>1</v>
+      </c>
+      <c r="M36" s="29">
+        <v>1</v>
+      </c>
+      <c r="N36" s="29">
+        <v>0</v>
+      </c>
+      <c r="O36" s="29">
+        <v>0</v>
+      </c>
+      <c r="P36" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="29">
         <v>1</v>
       </c>
       <c r="S36" s="10" t="s">
@@ -1659,7 +1779,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="21" x14ac:dyDescent="0.65">
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1667,32 +1787,32 @@
       <c r="A54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="27">
-        <v>0</v>
-      </c>
-      <c r="C54" s="31">
-        <v>0</v>
-      </c>
-      <c r="D54" s="31">
-        <v>0</v>
-      </c>
-      <c r="E54" s="31">
-        <v>0</v>
-      </c>
-      <c r="F54" s="31">
-        <v>0</v>
-      </c>
-      <c r="G54" s="31">
+      <c r="B54" s="26">
+        <v>0</v>
+      </c>
+      <c r="C54" s="29">
+        <v>0</v>
+      </c>
+      <c r="D54" s="29">
+        <v>0</v>
+      </c>
+      <c r="E54" s="29">
+        <v>0</v>
+      </c>
+      <c r="F54" s="29">
+        <v>0</v>
+      </c>
+      <c r="G54" s="29">
         <f>F54</f>
         <v>0</v>
       </c>
-      <c r="H54" s="31">
-        <v>0</v>
-      </c>
-      <c r="I54" s="31">
-        <v>1</v>
-      </c>
-      <c r="J54" s="31">
+      <c r="H54" s="29">
+        <v>0</v>
+      </c>
+      <c r="I54" s="29">
+        <v>1</v>
+      </c>
+      <c r="J54" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1700,31 +1820,31 @@
       <c r="A55" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="32">
-        <v>0</v>
-      </c>
-      <c r="C55" s="32">
-        <v>0</v>
-      </c>
-      <c r="D55" s="32">
-        <v>0</v>
-      </c>
-      <c r="E55" s="32">
-        <v>0</v>
-      </c>
-      <c r="F55" s="32">
-        <v>0</v>
-      </c>
-      <c r="G55" s="32">
-        <v>0</v>
-      </c>
-      <c r="H55" s="32">
-        <v>1</v>
-      </c>
-      <c r="I55" s="32">
-        <v>0</v>
-      </c>
-      <c r="J55" s="32">
+      <c r="B55" s="30">
+        <v>0</v>
+      </c>
+      <c r="C55" s="30">
+        <v>0</v>
+      </c>
+      <c r="D55" s="30">
+        <v>0</v>
+      </c>
+      <c r="E55" s="30">
+        <v>0</v>
+      </c>
+      <c r="F55" s="30">
+        <v>0</v>
+      </c>
+      <c r="G55" s="30">
+        <v>0</v>
+      </c>
+      <c r="H55" s="30">
+        <v>1</v>
+      </c>
+      <c r="I55" s="30">
+        <v>0</v>
+      </c>
+      <c r="J55" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1732,31 +1852,31 @@
       <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="32">
-        <v>0</v>
-      </c>
-      <c r="C56" s="32">
-        <v>0</v>
-      </c>
-      <c r="D56" s="32">
-        <v>0</v>
-      </c>
-      <c r="E56" s="32">
-        <v>0</v>
-      </c>
-      <c r="F56" s="32">
-        <v>0</v>
-      </c>
-      <c r="G56" s="32">
-        <v>1</v>
-      </c>
-      <c r="H56" s="32">
-        <v>0</v>
-      </c>
-      <c r="I56" s="32">
-        <v>0</v>
-      </c>
-      <c r="J56" s="32">
+      <c r="B56" s="30">
+        <v>0</v>
+      </c>
+      <c r="C56" s="30">
+        <v>0</v>
+      </c>
+      <c r="D56" s="30">
+        <v>0</v>
+      </c>
+      <c r="E56" s="30">
+        <v>0</v>
+      </c>
+      <c r="F56" s="30">
+        <v>0</v>
+      </c>
+      <c r="G56" s="30">
+        <v>1</v>
+      </c>
+      <c r="H56" s="30">
+        <v>0</v>
+      </c>
+      <c r="I56" s="30">
+        <v>0</v>
+      </c>
+      <c r="J56" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1767,15 +1887,15 @@
       <c r="I57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J57" s="33">
+      <c r="J57" s="31">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.65">
-      <c r="G61" s="26" t="s">
+      <c r="G61" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1783,7 +1903,7 @@
       <c r="A62" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="26">
         <v>0</v>
       </c>
       <c r="C62" s="13">
@@ -1815,7 +1935,7 @@
       <c r="A63" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="27">
+      <c r="B63" s="26">
         <v>0</v>
       </c>
       <c r="C63" s="13">
@@ -1847,7 +1967,7 @@
       <c r="A64" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="27">
+      <c r="B64" s="26">
         <v>0</v>
       </c>
       <c r="C64" s="13">
@@ -1875,31 +1995,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>54</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J65" s="33">
+      <c r="J65" s="31">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-    </row>
-    <row r="72" spans="1:14" ht="21" x14ac:dyDescent="0.65">
-      <c r="G72" s="26" t="s">
+    <row r="72" spans="1:10" ht="21" x14ac:dyDescent="0.65">
+      <c r="G72" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="25" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B73" s="13">
         <v>0</v>
       </c>
@@ -1928,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="s">
         <v>38</v>
       </c>
@@ -1960,54 +2075,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J75" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="J75" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B76" s="27">
-        <v>1</v>
-      </c>
-      <c r="C76" s="28">
-        <v>1</v>
-      </c>
-      <c r="D76" s="28">
-        <v>1</v>
-      </c>
-      <c r="E76" s="28">
-        <v>1</v>
-      </c>
-      <c r="F76" s="28">
-        <v>1</v>
-      </c>
-      <c r="G76" s="28">
-        <v>1</v>
-      </c>
-      <c r="H76" s="28">
-        <v>0</v>
-      </c>
-      <c r="I76" s="28">
-        <v>0</v>
-      </c>
-      <c r="J76" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B76" s="26">
+        <v>1</v>
+      </c>
+      <c r="C76" s="27">
+        <v>1</v>
+      </c>
+      <c r="D76" s="27">
+        <v>1</v>
+      </c>
+      <c r="E76" s="27">
+        <v>1</v>
+      </c>
+      <c r="F76" s="27">
+        <v>1</v>
+      </c>
+      <c r="G76" s="27">
+        <v>1</v>
+      </c>
+      <c r="H76" s="27">
+        <v>0</v>
+      </c>
+      <c r="I76" s="27">
+        <v>0</v>
+      </c>
+      <c r="J76" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>58</v>
       </c>
-      <c r="B77" s="27">
-        <v>1</v>
-      </c>
-      <c r="C77" s="27">
+      <c r="B77" s="26">
+        <v>1</v>
+      </c>
+      <c r="C77" s="26">
         <v>1</v>
       </c>
       <c r="D77" s="12">
@@ -2032,22 +2147,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="10" t="s">
         <v>61</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J78" s="33">
+      <c r="J78" s="31">
         <v>-4</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="21" x14ac:dyDescent="0.65">
-      <c r="G81" s="26" t="s">
+      <c r="G81" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H81" s="26" t="s">
+      <c r="H81" s="25" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2055,31 +2170,31 @@
       <c r="A82" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B82" s="27">
-        <v>1</v>
-      </c>
-      <c r="C82" s="28">
-        <v>1</v>
-      </c>
-      <c r="D82" s="28">
-        <v>1</v>
-      </c>
-      <c r="E82" s="28">
-        <v>1</v>
-      </c>
-      <c r="F82" s="28">
-        <v>1</v>
-      </c>
-      <c r="G82" s="28">
-        <v>1</v>
-      </c>
-      <c r="H82" s="28">
-        <v>0</v>
-      </c>
-      <c r="I82" s="28">
-        <v>0</v>
-      </c>
-      <c r="J82" s="28">
+      <c r="B82" s="26">
+        <v>1</v>
+      </c>
+      <c r="C82" s="27">
+        <v>1</v>
+      </c>
+      <c r="D82" s="27">
+        <v>1</v>
+      </c>
+      <c r="E82" s="27">
+        <v>1</v>
+      </c>
+      <c r="F82" s="27">
+        <v>1</v>
+      </c>
+      <c r="G82" s="27">
+        <v>1</v>
+      </c>
+      <c r="H82" s="27">
+        <v>0</v>
+      </c>
+      <c r="I82" s="27">
+        <v>0</v>
+      </c>
+      <c r="J82" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2087,10 +2202,10 @@
       <c r="A83" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="29">
-        <v>0</v>
-      </c>
-      <c r="C83" s="27">
+      <c r="B83" s="28">
+        <v>0</v>
+      </c>
+      <c r="C83" s="26">
         <v>1</v>
       </c>
       <c r="D83" s="12">
@@ -2119,7 +2234,7 @@
       <c r="I84" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J84" s="33">
+      <c r="J84" s="31">
         <v>2147483644</v>
       </c>
     </row>
@@ -2132,8 +2247,439 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A839B7-0A80-450F-A26C-ECF19EFF6D64}">
+  <dimension ref="A7:O51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="21.06640625" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="F7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C9" s="11">
+        <v>233</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35">
+        <v>0</v>
+      </c>
+      <c r="K11" s="35">
+        <v>0</v>
+      </c>
+      <c r="L11" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
+        <v>0</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0</v>
+      </c>
+      <c r="L13" s="36">
+        <v>1</v>
+      </c>
+      <c r="N13" s="37">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="N14" s="37">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F18" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C20" s="11">
+        <v>233</v>
+      </c>
+      <c r="E20" s="13">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="E21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F28" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="38">
+        <v>1</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0</v>
+      </c>
+      <c r="G30" s="38">
+        <v>0</v>
+      </c>
+      <c r="H30" s="38">
+        <v>1</v>
+      </c>
+      <c r="I30" s="38">
+        <v>1</v>
+      </c>
+      <c r="J30" s="38">
+        <v>1</v>
+      </c>
+      <c r="K30" s="38">
+        <v>0</v>
+      </c>
+      <c r="L30" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C32" s="11">
+        <v>1</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0</v>
+      </c>
+      <c r="G32" s="35">
+        <v>0</v>
+      </c>
+      <c r="H32" s="35">
+        <v>0</v>
+      </c>
+      <c r="I32" s="35">
+        <v>0</v>
+      </c>
+      <c r="J32" s="35">
+        <v>0</v>
+      </c>
+      <c r="K32" s="35">
+        <v>0</v>
+      </c>
+      <c r="L32" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0</v>
+      </c>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
+      <c r="H34" s="29">
+        <v>0</v>
+      </c>
+      <c r="I34" s="29">
+        <v>0</v>
+      </c>
+      <c r="J34" s="29">
+        <v>0</v>
+      </c>
+      <c r="K34" s="29">
+        <v>0</v>
+      </c>
+      <c r="L34" s="29">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="38">
+        <v>0</v>
+      </c>
+      <c r="F39" s="38">
+        <v>1</v>
+      </c>
+      <c r="G39" s="38">
+        <v>0</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0</v>
+      </c>
+      <c r="I39" s="38">
+        <v>1</v>
+      </c>
+      <c r="J39" s="38">
+        <v>1</v>
+      </c>
+      <c r="K39" s="38">
+        <v>1</v>
+      </c>
+      <c r="L39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="D41" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="35">
+        <v>0</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35">
+        <v>0</v>
+      </c>
+      <c r="H41" s="35">
+        <v>0</v>
+      </c>
+      <c r="I41" s="35">
+        <v>0</v>
+      </c>
+      <c r="J41" s="35">
+        <v>0</v>
+      </c>
+      <c r="K41" s="35">
+        <v>0</v>
+      </c>
+      <c r="L41" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="E43" s="29">
+        <v>0</v>
+      </c>
+      <c r="F43" s="29">
+        <v>0</v>
+      </c>
+      <c r="G43" s="29">
+        <v>0</v>
+      </c>
+      <c r="H43" s="29">
+        <v>0</v>
+      </c>
+      <c r="I43" s="29">
+        <v>0</v>
+      </c>
+      <c r="J43" s="29">
+        <v>0</v>
+      </c>
+      <c r="K43" s="29">
+        <v>0</v>
+      </c>
+      <c r="L43" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A48" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="E48" s="38">
+        <v>0</v>
+      </c>
+      <c r="F48" s="38">
+        <v>0</v>
+      </c>
+      <c r="G48" s="38">
+        <v>0</v>
+      </c>
+      <c r="H48" s="38">
+        <v>0</v>
+      </c>
+      <c r="I48" s="38">
+        <v>0</v>
+      </c>
+      <c r="J48" s="38">
+        <v>0</v>
+      </c>
+      <c r="K48" s="38">
+        <v>0</v>
+      </c>
+      <c r="L48" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="A48:C48"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3B4310-5490-4FEC-A310-FCC5088E94E6}">
-  <dimension ref="F17:Q41"/>
+  <dimension ref="F17:Q23"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
@@ -2213,13 +2759,6 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.45">
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/notes/DSA.xlsx
+++ b/src/notes/DSA.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\CC_B1_Java\src\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057450C7-4124-480C-81D9-38C0E6B4EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20878517-7A09-4965-8C6A-B3A74104E78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{66337891-5822-498F-8DE1-20DD74AF1CC9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{66337891-5822-498F-8DE1-20DD74AF1CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Logical Operators" sheetId="2" r:id="rId1"/>
     <sheet name="Integers" sheetId="3" r:id="rId2"/>
     <sheet name="Bit Magic" sheetId="4" r:id="rId3"/>
     <sheet name="STACK" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,8 +62,162 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>suman shekhar</author>
+  </authors>
+  <commentList>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{BA5B9206-96BE-48DC-9A95-B1AC982127B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>suman shekhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+MOST SIGNIFICANT BIT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0" xr:uid="{F2173601-D4B6-41CD-BF77-7D1C5ED391F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>suman shekhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+SIGN BIT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{15C4D820-45DC-414D-9AFE-6BAFE59AEA2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>suman shekhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LEFT MOST BIT</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L79" authorId="0" shapeId="0" xr:uid="{823F58AF-46B2-452F-9C6A-85D31E2EFBE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>suman shekhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+set bit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M81" authorId="0" shapeId="0" xr:uid="{3B58F988-B12E-48AC-8072-F4E1D7F6A337}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>suman shekhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+set bit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N83" authorId="0" shapeId="0" xr:uid="{F97BA68C-79D4-4C85-8B68-0BF9E7BD9041}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>suman shekhar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+set bit</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>A</t>
   </si>
@@ -127,9 +282,6 @@
     <t>OR |</t>
   </si>
   <si>
-    <t>NOT !</t>
-  </si>
-  <si>
     <t>XOR ^</t>
   </si>
   <si>
@@ -293,13 +445,58 @@
   </si>
   <si>
     <t>loop will go on till n becomes 0 by rightshifting</t>
+  </si>
+  <si>
+    <t>byte x = 5;</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>LMB</t>
+  </si>
+  <si>
+    <t>byte x = -5;</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>NOT ~</t>
+  </si>
+  <si>
+    <t>carry 1</t>
+  </si>
+  <si>
+    <t>int x= 12</t>
+  </si>
+  <si>
+    <t>storing +ve integer</t>
+  </si>
+  <si>
+    <t>storing -ve integer using 2s complement</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>fianl representaion</t>
+  </si>
+  <si>
+    <t>calculate magnitude from negative final representation</t>
+  </si>
+  <si>
+    <t>24 bits of in the left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,8 +606,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +766,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -595,11 +848,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -685,21 +962,57 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CD723D-1BBD-400C-9C2D-638878376B46}">
   <dimension ref="G5:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1028,7 +1341,7 @@
     </row>
     <row r="8" spans="7:20" x14ac:dyDescent="0.45">
       <c r="G8" s="11" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>19</v>
@@ -1043,7 +1356,7 @@
         <v>17</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="7:20" x14ac:dyDescent="0.45">
@@ -1224,7 +1537,7 @@
       </c>
     </row>
     <row r="23" spans="7:15" x14ac:dyDescent="0.45">
-      <c r="J23" t="s">
+      <c r="J23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="2">
@@ -1264,12 +1577,12 @@
     </row>
     <row r="31" spans="7:15" ht="22.5" x14ac:dyDescent="0.45">
       <c r="G31" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="7:15" ht="22.5" x14ac:dyDescent="0.45">
       <c r="G32" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="9:17" x14ac:dyDescent="0.45">
@@ -1296,8 +1609,8 @@
       </c>
     </row>
     <row r="36" spans="9:17" x14ac:dyDescent="0.45">
-      <c r="I36" t="s">
-        <v>37</v>
+      <c r="I36" s="39" t="s">
+        <v>36</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1364,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F667029-9610-45D3-831A-49F0F8CC7945}">
   <dimension ref="A7:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1385,10 +1698,10 @@
   <sheetData>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="G7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>8</v>
@@ -1397,13 +1710,13 @@
         <v>4</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>7</v>
@@ -1471,24 +1784,24 @@
     <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="H12" s="21"/>
       <c r="I12" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="H13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="18"/>
@@ -1509,7 +1822,7 @@
     </row>
     <row r="18" spans="1:21" ht="21" x14ac:dyDescent="0.65">
       <c r="H18" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.45">
@@ -1567,15 +1880,15 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.45">
@@ -1628,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="S29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29" t="s">
         <v>29</v>
-      </c>
-      <c r="T29" t="s">
-        <v>30</v>
       </c>
       <c r="U29">
         <v>1111</v>
@@ -1639,15 +1952,15 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.45">
@@ -1700,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.45">
@@ -1713,10 +2026,10 @@
     </row>
     <row r="35" spans="1:20" ht="21" x14ac:dyDescent="0.65">
       <c r="A35" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.45">
@@ -1772,20 +2085,20 @@
         <v>1</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="H53" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="26">
         <v>0</v>
@@ -1818,7 +2131,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="30">
         <v>0</v>
@@ -1850,7 +2163,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="30">
         <v>0</v>
@@ -1882,10 +2195,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="J57" s="31">
         <v>8</v>
@@ -1893,15 +2206,15 @@
     </row>
     <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="G61" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H61" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="26">
         <v>0</v>
@@ -1933,7 +2246,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63" s="26">
         <v>0</v>
@@ -1965,7 +2278,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B64" s="26">
         <v>0</v>
@@ -1997,10 +2310,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J65" s="31">
         <v>2</v>
@@ -2008,10 +2321,10 @@
     </row>
     <row r="72" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="G72" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H72" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
@@ -2045,7 +2358,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="12">
         <v>1</v>
@@ -2077,7 +2390,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75" s="32">
         <v>1</v>
@@ -2085,7 +2398,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" s="26">
         <v>1</v>
@@ -2117,7 +2430,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="26">
         <v>1</v>
@@ -2149,10 +2462,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J78" s="31">
         <v>-4</v>
@@ -2160,15 +2473,15 @@
     </row>
     <row r="81" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="G81" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="26">
         <v>1</v>
@@ -2200,7 +2513,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="28">
         <v>0</v>
@@ -2232,7 +2545,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="I84" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J84" s="31">
         <v>2147483644</v>
@@ -2250,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A839B7-0A80-450F-A26C-ECF19EFF6D64}">
   <dimension ref="A7:O51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -2261,13 +2574,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="F7" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="F7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C9" s="11">
@@ -2332,37 +2645,37 @@
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="36">
+        <v>0</v>
+      </c>
+      <c r="K13" s="36">
+        <v>0</v>
+      </c>
+      <c r="L13" s="36">
+        <v>1</v>
+      </c>
+      <c r="N13" s="37">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
         <v>62</v>
-      </c>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="36">
-        <v>0</v>
-      </c>
-      <c r="G13" s="36">
-        <v>0</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
-        <v>0</v>
-      </c>
-      <c r="J13" s="36">
-        <v>0</v>
-      </c>
-      <c r="K13" s="36">
-        <v>0</v>
-      </c>
-      <c r="L13" s="36">
-        <v>1</v>
-      </c>
-      <c r="N13" s="37">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.45">
@@ -2370,15 +2683,15 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F18" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="F18" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C20" s="11">
@@ -2410,37 +2723,37 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="F28" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F28" s="39" t="s">
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A30" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="E30" s="38">
         <v>1</v>
@@ -2501,42 +2814,42 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C34" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0</v>
+      </c>
+      <c r="G34" s="29">
+        <v>0</v>
+      </c>
+      <c r="H34" s="29">
+        <v>0</v>
+      </c>
+      <c r="I34" s="29">
+        <v>0</v>
+      </c>
+      <c r="J34" s="29">
+        <v>0</v>
+      </c>
+      <c r="K34" s="29">
+        <v>0</v>
+      </c>
+      <c r="L34" s="29">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="29">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0</v>
-      </c>
-      <c r="G34" s="29">
-        <v>0</v>
-      </c>
-      <c r="H34" s="29">
-        <v>0</v>
-      </c>
-      <c r="I34" s="29">
-        <v>0</v>
-      </c>
-      <c r="J34" s="29">
-        <v>0</v>
-      </c>
-      <c r="K34" s="29">
-        <v>0</v>
-      </c>
-      <c r="L34" s="29">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A39" s="40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="43" t="s">
+      <c r="C39" t="s">
         <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
       </c>
       <c r="E39" s="38">
         <v>0</v>
@@ -2565,7 +2878,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -2624,11 +2937,11 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
+      <c r="A48" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
       <c r="E48" s="38">
         <v>0</v>
       </c>
@@ -2655,16 +2968,15 @@
       </c>
     </row>
     <row r="51" spans="5:14" x14ac:dyDescent="0.45">
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="41"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="N51" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2763,4 +3075,515 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9A81D-9B76-442A-9969-1B3478FFB230}">
+  <dimension ref="A14:P102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="F14" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
+        <v>0</v>
+      </c>
+      <c r="J15" s="43">
+        <v>0</v>
+      </c>
+      <c r="K15" s="43">
+        <v>0</v>
+      </c>
+      <c r="L15" s="43">
+        <v>1</v>
+      </c>
+      <c r="M15" s="43">
+        <v>0</v>
+      </c>
+      <c r="N15" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="C16" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="50"/>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="C24" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F25" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="43">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
+        <v>0</v>
+      </c>
+      <c r="J26" s="43">
+        <v>0</v>
+      </c>
+      <c r="K26" s="43">
+        <v>0</v>
+      </c>
+      <c r="L26" s="43">
+        <v>1</v>
+      </c>
+      <c r="M26" s="43">
+        <v>0</v>
+      </c>
+      <c r="N26" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F28" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="43">
+        <v>1</v>
+      </c>
+      <c r="I29" s="43">
+        <v>1</v>
+      </c>
+      <c r="J29" s="43">
+        <v>1</v>
+      </c>
+      <c r="K29" s="43">
+        <v>1</v>
+      </c>
+      <c r="L29" s="43">
+        <v>0</v>
+      </c>
+      <c r="M29" s="43">
+        <v>1</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B31" s="44">
+        <v>1</v>
+      </c>
+      <c r="C31" s="44"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="F32" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B34" s="44">
+        <v>1</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="43">
+        <v>1</v>
+      </c>
+      <c r="I34" s="43">
+        <v>1</v>
+      </c>
+      <c r="J34" s="43">
+        <v>1</v>
+      </c>
+      <c r="K34" s="43">
+        <v>1</v>
+      </c>
+      <c r="L34" s="43">
+        <v>0</v>
+      </c>
+      <c r="M34" s="43">
+        <v>1</v>
+      </c>
+      <c r="N34" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B37" s="44">
+        <v>0</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="52"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="F38" s="34">
+        <v>-5</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="43">
+        <v>1</v>
+      </c>
+      <c r="I38" s="43">
+        <v>1</v>
+      </c>
+      <c r="J38" s="43">
+        <v>1</v>
+      </c>
+      <c r="K38" s="43">
+        <v>1</v>
+      </c>
+      <c r="L38" s="43">
+        <v>0</v>
+      </c>
+      <c r="M38" s="43">
+        <v>1</v>
+      </c>
+      <c r="N38" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="G39" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="6:16" x14ac:dyDescent="0.45">
+      <c r="H50" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+    </row>
+    <row r="52" spans="6:16" x14ac:dyDescent="0.45">
+      <c r="F52" s="34">
+        <v>-5</v>
+      </c>
+      <c r="G52" s="45">
+        <v>1</v>
+      </c>
+      <c r="H52" s="46">
+        <v>1</v>
+      </c>
+      <c r="I52" s="46">
+        <v>1</v>
+      </c>
+      <c r="J52" s="46">
+        <v>1</v>
+      </c>
+      <c r="K52" s="46">
+        <v>1</v>
+      </c>
+      <c r="L52" s="46">
+        <v>0</v>
+      </c>
+      <c r="M52" s="46">
+        <v>1</v>
+      </c>
+      <c r="N52" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" x14ac:dyDescent="0.45">
+      <c r="G53" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" x14ac:dyDescent="0.45">
+      <c r="F55" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="45">
+        <v>0</v>
+      </c>
+      <c r="H55" s="46">
+        <v>0</v>
+      </c>
+      <c r="I55" s="46">
+        <v>0</v>
+      </c>
+      <c r="J55" s="46">
+        <v>0</v>
+      </c>
+      <c r="K55" s="46">
+        <v>0</v>
+      </c>
+      <c r="L55" s="46">
+        <v>1</v>
+      </c>
+      <c r="M55" s="46">
+        <v>0</v>
+      </c>
+      <c r="N55" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:16" x14ac:dyDescent="0.45">
+      <c r="M57" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="N57" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="6:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="59" spans="6:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F59" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="45">
+        <v>0</v>
+      </c>
+      <c r="H59" s="46">
+        <v>0</v>
+      </c>
+      <c r="I59" s="46">
+        <v>0</v>
+      </c>
+      <c r="J59" s="46">
+        <v>0</v>
+      </c>
+      <c r="K59" s="46">
+        <v>0</v>
+      </c>
+      <c r="L59" s="46">
+        <v>1</v>
+      </c>
+      <c r="M59" s="46">
+        <v>0</v>
+      </c>
+      <c r="N59" s="46">
+        <v>1</v>
+      </c>
+      <c r="P59" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="6:16" x14ac:dyDescent="0.45">
+      <c r="P60" s="34">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="F75" s="48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C77" s="2"/>
+      <c r="D77" s="56">
+        <v>10</v>
+      </c>
+      <c r="E77" s="56">
+        <v>9</v>
+      </c>
+      <c r="F77" s="56">
+        <v>8</v>
+      </c>
+      <c r="G77" s="56">
+        <v>7</v>
+      </c>
+      <c r="H77" s="56">
+        <v>6</v>
+      </c>
+      <c r="I77" s="56">
+        <v>5</v>
+      </c>
+      <c r="J77" s="56">
+        <v>4</v>
+      </c>
+      <c r="K77" s="56">
+        <v>3</v>
+      </c>
+      <c r="L77" s="56">
+        <v>2</v>
+      </c>
+      <c r="M77" s="56">
+        <v>1</v>
+      </c>
+      <c r="N77" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A79" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="55"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="55"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="45">
+        <v>0</v>
+      </c>
+      <c r="H79" s="45">
+        <v>0</v>
+      </c>
+      <c r="I79" s="45">
+        <v>0</v>
+      </c>
+      <c r="J79" s="45">
+        <v>0</v>
+      </c>
+      <c r="K79" s="45">
+        <v>1</v>
+      </c>
+      <c r="L79" s="45">
+        <v>1</v>
+      </c>
+      <c r="M79" s="45">
+        <v>0</v>
+      </c>
+      <c r="N79" s="49">
+        <v>0</v>
+      </c>
+      <c r="O79" s="47"/>
+    </row>
+    <row r="81" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="H81" s="45">
+        <v>0</v>
+      </c>
+      <c r="I81" s="45">
+        <v>0</v>
+      </c>
+      <c r="J81" s="45">
+        <v>0</v>
+      </c>
+      <c r="K81" s="45">
+        <v>0</v>
+      </c>
+      <c r="L81" s="45">
+        <v>1</v>
+      </c>
+      <c r="M81" s="45">
+        <v>1</v>
+      </c>
+      <c r="N81" s="49">
+        <v>0</v>
+      </c>
+      <c r="P81" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="I83" s="45">
+        <v>0</v>
+      </c>
+      <c r="J83" s="45">
+        <v>0</v>
+      </c>
+      <c r="K83" s="45">
+        <v>0</v>
+      </c>
+      <c r="L83" s="45">
+        <v>0</v>
+      </c>
+      <c r="M83" s="45">
+        <v>1</v>
+      </c>
+      <c r="N83" s="45">
+        <v>1</v>
+      </c>
+      <c r="P83" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="D94" s="57"/>
+    </row>
+    <row r="102" spans="9:16" x14ac:dyDescent="0.45">
+      <c r="I102" s="58"/>
+      <c r="J102" s="58"/>
+      <c r="K102" s="58"/>
+      <c r="L102" s="58"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="58"/>
+      <c r="P102" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="H50:L50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/notes/DSA.xlsx
+++ b/src/notes/DSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\CC_B1_Java\src\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20878517-7A09-4965-8C6A-B3A74104E78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2FD66A-38CE-4987-A373-7865435C1B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{66337891-5822-498F-8DE1-20DD74AF1CC9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{66337891-5822-498F-8DE1-20DD74AF1CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Logical Operators" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Bit Magic" sheetId="4" r:id="rId3"/>
     <sheet name="STACK" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Arrays" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -217,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>A</t>
   </si>
@@ -490,6 +491,36 @@
   </si>
   <si>
     <t>24 bits of in the left</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>mango</t>
+  </si>
+  <si>
+    <t>lichi</t>
+  </si>
+  <si>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>pears</t>
+  </si>
+  <si>
+    <t>String arr</t>
   </si>
 </sst>
 </file>
@@ -876,7 +907,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -968,12 +999,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,36 +1007,37 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2574,13 +2600,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C9" s="11">
@@ -2687,11 +2713,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C20" s="11">
@@ -2740,13 +2766,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="40" t="s">
@@ -2937,11 +2963,11 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
       <c r="E48" s="38">
         <v>0</v>
       </c>
@@ -3081,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9A81D-9B76-442A-9969-1B3478FFB230}">
   <dimension ref="A14:P102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3096,33 +3122,33 @@
       <c r="G15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="43">
-        <v>0</v>
-      </c>
-      <c r="I15" s="43">
-        <v>0</v>
-      </c>
-      <c r="J15" s="43">
-        <v>0</v>
-      </c>
-      <c r="K15" s="43">
-        <v>0</v>
-      </c>
-      <c r="L15" s="43">
-        <v>1</v>
-      </c>
-      <c r="M15" s="43">
-        <v>0</v>
-      </c>
-      <c r="N15" s="43">
+      <c r="H15" s="41">
+        <v>0</v>
+      </c>
+      <c r="I15" s="41">
+        <v>0</v>
+      </c>
+      <c r="J15" s="41">
+        <v>0</v>
+      </c>
+      <c r="K15" s="41">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41">
+        <v>1</v>
+      </c>
+      <c r="M15" s="41">
+        <v>0</v>
+      </c>
+      <c r="N15" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="53"/>
       <c r="G16" t="s">
         <v>77</v>
       </c>
@@ -3141,10 +3167,10 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="53"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F25" s="10" t="s">
@@ -3155,25 +3181,25 @@
       <c r="G26" s="4">
         <v>0</v>
       </c>
-      <c r="H26" s="43">
-        <v>0</v>
-      </c>
-      <c r="I26" s="43">
-        <v>0</v>
-      </c>
-      <c r="J26" s="43">
-        <v>0</v>
-      </c>
-      <c r="K26" s="43">
-        <v>0</v>
-      </c>
-      <c r="L26" s="43">
-        <v>1</v>
-      </c>
-      <c r="M26" s="43">
-        <v>0</v>
-      </c>
-      <c r="N26" s="43">
+      <c r="H26" s="41">
+        <v>0</v>
+      </c>
+      <c r="I26" s="41">
+        <v>0</v>
+      </c>
+      <c r="J26" s="41">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
+        <v>1</v>
+      </c>
+      <c r="M26" s="41">
+        <v>0</v>
+      </c>
+      <c r="N26" s="41">
         <v>1</v>
       </c>
     </row>
@@ -3189,100 +3215,100 @@
       <c r="G29" s="4">
         <v>1</v>
       </c>
-      <c r="H29" s="43">
-        <v>1</v>
-      </c>
-      <c r="I29" s="43">
-        <v>1</v>
-      </c>
-      <c r="J29" s="43">
-        <v>1</v>
-      </c>
-      <c r="K29" s="43">
-        <v>1</v>
-      </c>
-      <c r="L29" s="43">
-        <v>0</v>
-      </c>
-      <c r="M29" s="43">
-        <v>1</v>
-      </c>
-      <c r="N29" s="43">
+      <c r="H29" s="41">
+        <v>1</v>
+      </c>
+      <c r="I29" s="41">
+        <v>1</v>
+      </c>
+      <c r="J29" s="41">
+        <v>1</v>
+      </c>
+      <c r="K29" s="41">
+        <v>1</v>
+      </c>
+      <c r="L29" s="41">
+        <v>0</v>
+      </c>
+      <c r="M29" s="41">
+        <v>1</v>
+      </c>
+      <c r="N29" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B31" s="44">
-        <v>1</v>
-      </c>
-      <c r="C31" s="44"/>
+      <c r="B31" s="42">
+        <v>1</v>
+      </c>
+      <c r="C31" s="42"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
       <c r="F32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="51" t="s">
+      <c r="M32" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="N32" s="51">
+      <c r="N32" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B34" s="44">
-        <v>1</v>
-      </c>
-      <c r="C34" s="44"/>
+      <c r="B34" s="42">
+        <v>1</v>
+      </c>
+      <c r="C34" s="42"/>
       <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="43">
-        <v>1</v>
-      </c>
-      <c r="I34" s="43">
-        <v>1</v>
-      </c>
-      <c r="J34" s="43">
-        <v>1</v>
-      </c>
-      <c r="K34" s="43">
-        <v>1</v>
-      </c>
-      <c r="L34" s="43">
-        <v>0</v>
-      </c>
-      <c r="M34" s="43">
-        <v>1</v>
-      </c>
-      <c r="N34" s="43">
+      <c r="H34" s="41">
+        <v>1</v>
+      </c>
+      <c r="I34" s="41">
+        <v>1</v>
+      </c>
+      <c r="J34" s="41">
+        <v>1</v>
+      </c>
+      <c r="K34" s="41">
+        <v>1</v>
+      </c>
+      <c r="L34" s="41">
+        <v>0</v>
+      </c>
+      <c r="M34" s="41">
+        <v>1</v>
+      </c>
+      <c r="N34" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B37" s="44">
-        <v>0</v>
-      </c>
-      <c r="C37" s="44" t="s">
+      <c r="B37" s="42">
+        <v>0</v>
+      </c>
+      <c r="C37" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="52" t="s">
+      <c r="I37" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="52"/>
+      <c r="J37" s="54"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F38" s="34">
@@ -3291,25 +3317,25 @@
       <c r="G38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="43">
-        <v>1</v>
-      </c>
-      <c r="I38" s="43">
-        <v>1</v>
-      </c>
-      <c r="J38" s="43">
-        <v>1</v>
-      </c>
-      <c r="K38" s="43">
-        <v>1</v>
-      </c>
-      <c r="L38" s="43">
-        <v>0</v>
-      </c>
-      <c r="M38" s="43">
-        <v>1</v>
-      </c>
-      <c r="N38" s="43">
+      <c r="H38" s="41">
+        <v>1</v>
+      </c>
+      <c r="I38" s="41">
+        <v>1</v>
+      </c>
+      <c r="J38" s="41">
+        <v>1</v>
+      </c>
+      <c r="K38" s="41">
+        <v>1</v>
+      </c>
+      <c r="L38" s="41">
+        <v>0</v>
+      </c>
+      <c r="M38" s="41">
+        <v>1</v>
+      </c>
+      <c r="N38" s="41">
         <v>1</v>
       </c>
     </row>
@@ -3319,40 +3345,40 @@
       </c>
     </row>
     <row r="50" spans="6:16" x14ac:dyDescent="0.45">
-      <c r="H50" s="53" t="s">
+      <c r="H50" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
     </row>
     <row r="52" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F52" s="34">
         <v>-5</v>
       </c>
-      <c r="G52" s="45">
-        <v>1</v>
-      </c>
-      <c r="H52" s="46">
-        <v>1</v>
-      </c>
-      <c r="I52" s="46">
-        <v>1</v>
-      </c>
-      <c r="J52" s="46">
-        <v>1</v>
-      </c>
-      <c r="K52" s="46">
-        <v>1</v>
-      </c>
-      <c r="L52" s="46">
-        <v>0</v>
-      </c>
-      <c r="M52" s="46">
-        <v>1</v>
-      </c>
-      <c r="N52" s="46">
+      <c r="G52" s="43">
+        <v>1</v>
+      </c>
+      <c r="H52" s="44">
+        <v>1</v>
+      </c>
+      <c r="I52" s="44">
+        <v>1</v>
+      </c>
+      <c r="J52" s="44">
+        <v>1</v>
+      </c>
+      <c r="K52" s="44">
+        <v>1</v>
+      </c>
+      <c r="L52" s="44">
+        <v>0</v>
+      </c>
+      <c r="M52" s="44">
+        <v>1</v>
+      </c>
+      <c r="N52" s="44">
         <v>1</v>
       </c>
     </row>
@@ -3365,36 +3391,36 @@
       <c r="F55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="45">
-        <v>0</v>
-      </c>
-      <c r="H55" s="46">
-        <v>0</v>
-      </c>
-      <c r="I55" s="46">
-        <v>0</v>
-      </c>
-      <c r="J55" s="46">
-        <v>0</v>
-      </c>
-      <c r="K55" s="46">
-        <v>0</v>
-      </c>
-      <c r="L55" s="46">
-        <v>1</v>
-      </c>
-      <c r="M55" s="46">
-        <v>0</v>
-      </c>
-      <c r="N55" s="46">
+      <c r="G55" s="43">
+        <v>0</v>
+      </c>
+      <c r="H55" s="44">
+        <v>0</v>
+      </c>
+      <c r="I55" s="44">
+        <v>0</v>
+      </c>
+      <c r="J55" s="44">
+        <v>0</v>
+      </c>
+      <c r="K55" s="44">
+        <v>0</v>
+      </c>
+      <c r="L55" s="44">
+        <v>1</v>
+      </c>
+      <c r="M55" s="44">
+        <v>0</v>
+      </c>
+      <c r="N55" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="6:16" x14ac:dyDescent="0.45">
-      <c r="M57" s="51" t="s">
+      <c r="M57" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="N57" s="51">
+      <c r="N57" s="47">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +3429,31 @@
       <c r="F59" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G59" s="45">
-        <v>0</v>
-      </c>
-      <c r="H59" s="46">
-        <v>0</v>
-      </c>
-      <c r="I59" s="46">
-        <v>0</v>
-      </c>
-      <c r="J59" s="46">
-        <v>0</v>
-      </c>
-      <c r="K59" s="46">
-        <v>0</v>
-      </c>
-      <c r="L59" s="46">
-        <v>1</v>
-      </c>
-      <c r="M59" s="46">
-        <v>0</v>
-      </c>
-      <c r="N59" s="46">
-        <v>1</v>
-      </c>
-      <c r="P59" s="54">
+      <c r="G59" s="43">
+        <v>0</v>
+      </c>
+      <c r="H59" s="44">
+        <v>0</v>
+      </c>
+      <c r="I59" s="44">
+        <v>0</v>
+      </c>
+      <c r="J59" s="44">
+        <v>0</v>
+      </c>
+      <c r="K59" s="44">
+        <v>0</v>
+      </c>
+      <c r="L59" s="44">
+        <v>1</v>
+      </c>
+      <c r="M59" s="44">
+        <v>0</v>
+      </c>
+      <c r="N59" s="44">
+        <v>1</v>
+      </c>
+      <c r="P59" s="48">
         <v>5</v>
       </c>
     </row>
@@ -3436,102 +3462,101 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="F75" s="48" t="s">
+    <row r="75" spans="1:14" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="F75" s="45" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C77" s="2"/>
-      <c r="D77" s="56">
+      <c r="D77" s="49">
         <v>10</v>
       </c>
-      <c r="E77" s="56">
+      <c r="E77" s="49">
         <v>9</v>
       </c>
-      <c r="F77" s="56">
+      <c r="F77" s="49">
         <v>8</v>
       </c>
-      <c r="G77" s="56">
+      <c r="G77" s="49">
         <v>7</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="49">
         <v>6</v>
       </c>
-      <c r="I77" s="56">
+      <c r="I77" s="49">
         <v>5</v>
       </c>
-      <c r="J77" s="56">
+      <c r="J77" s="49">
         <v>4</v>
       </c>
-      <c r="K77" s="56">
+      <c r="K77" s="49">
         <v>3</v>
       </c>
-      <c r="L77" s="56">
+      <c r="L77" s="49">
         <v>2</v>
       </c>
-      <c r="M77" s="56">
-        <v>1</v>
-      </c>
-      <c r="N77" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A79" s="55" t="s">
+      <c r="M77" s="49">
+        <v>1</v>
+      </c>
+      <c r="N77" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A79" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="55"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="45">
-        <v>0</v>
-      </c>
-      <c r="H79" s="45">
-        <v>0</v>
-      </c>
-      <c r="I79" s="45">
-        <v>0</v>
-      </c>
-      <c r="J79" s="45">
-        <v>0</v>
-      </c>
-      <c r="K79" s="45">
-        <v>1</v>
-      </c>
-      <c r="L79" s="45">
-        <v>1</v>
-      </c>
-      <c r="M79" s="45">
-        <v>0</v>
-      </c>
-      <c r="N79" s="49">
-        <v>0</v>
-      </c>
-      <c r="O79" s="47"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="52"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="52"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="43">
+        <v>0</v>
+      </c>
+      <c r="H79" s="43">
+        <v>0</v>
+      </c>
+      <c r="I79" s="43">
+        <v>0</v>
+      </c>
+      <c r="J79" s="43">
+        <v>0</v>
+      </c>
+      <c r="K79" s="43">
+        <v>1</v>
+      </c>
+      <c r="L79" s="43">
+        <v>1</v>
+      </c>
+      <c r="M79" s="43">
+        <v>0</v>
+      </c>
+      <c r="N79" s="46">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="H81" s="45">
-        <v>0</v>
-      </c>
-      <c r="I81" s="45">
-        <v>0</v>
-      </c>
-      <c r="J81" s="45">
-        <v>0</v>
-      </c>
-      <c r="K81" s="45">
-        <v>0</v>
-      </c>
-      <c r="L81" s="45">
-        <v>1</v>
-      </c>
-      <c r="M81" s="45">
-        <v>1</v>
-      </c>
-      <c r="N81" s="49">
+      <c r="H81" s="43">
+        <v>0</v>
+      </c>
+      <c r="I81" s="43">
+        <v>0</v>
+      </c>
+      <c r="J81" s="43">
+        <v>0</v>
+      </c>
+      <c r="K81" s="43">
+        <v>0</v>
+      </c>
+      <c r="L81" s="43">
+        <v>1</v>
+      </c>
+      <c r="M81" s="43">
+        <v>1</v>
+      </c>
+      <c r="N81" s="46">
         <v>0</v>
       </c>
       <c r="P81" s="10" t="s">
@@ -3539,22 +3564,22 @@
       </c>
     </row>
     <row r="83" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="I83" s="45">
-        <v>0</v>
-      </c>
-      <c r="J83" s="45">
-        <v>0</v>
-      </c>
-      <c r="K83" s="45">
-        <v>0</v>
-      </c>
-      <c r="L83" s="45">
-        <v>0</v>
-      </c>
-      <c r="M83" s="45">
-        <v>1</v>
-      </c>
-      <c r="N83" s="45">
+      <c r="I83" s="43">
+        <v>0</v>
+      </c>
+      <c r="J83" s="43">
+        <v>0</v>
+      </c>
+      <c r="K83" s="43">
+        <v>0</v>
+      </c>
+      <c r="L83" s="43">
+        <v>0</v>
+      </c>
+      <c r="M83" s="43">
+        <v>1</v>
+      </c>
+      <c r="N83" s="43">
         <v>1</v>
       </c>
       <c r="P83" s="10" t="s">
@@ -3562,17 +3587,17 @@
       </c>
     </row>
     <row r="94" spans="4:16" x14ac:dyDescent="0.45">
-      <c r="D94" s="57"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="102" spans="9:16" x14ac:dyDescent="0.45">
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
-      <c r="O102" s="58"/>
-      <c r="P102" s="58"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3586,4 +3611,61 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2917AC06-F268-489E-BB06-A8215E80D767}">
+  <dimension ref="F13:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/notes/DSA.xlsx
+++ b/src/notes/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\CC_B1_Java\src\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2FD66A-38CE-4987-A373-7865435C1B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE79B707-58CD-4C44-B74F-748EF839194A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{66337891-5822-498F-8DE1-20DD74AF1CC9}"/>
   </bookViews>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
   <si>
     <t>A</t>
   </si>
@@ -521,13 +521,94 @@
   </si>
   <si>
     <t>String arr</t>
+  </si>
+  <si>
+    <t>regular/symmetric 2d</t>
+  </si>
+  <si>
+    <t>6*4 = 24</t>
+  </si>
+  <si>
+    <t>matrix[0]</t>
+  </si>
+  <si>
+    <t>matrix[1]</t>
+  </si>
+  <si>
+    <t>matrix[2]</t>
+  </si>
+  <si>
+    <t>mat1</t>
+  </si>
+  <si>
+    <t>mat2</t>
+  </si>
+  <si>
+    <t>4*3</t>
+  </si>
+  <si>
+    <t>3*3</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>3*1+ 23*4 +23*0</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>sum1</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>sum3</t>
+  </si>
+  <si>
+    <t>cell sum</t>
+  </si>
+  <si>
+    <t>i,k</t>
+  </si>
+  <si>
+    <t>k,j</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>MATRIX MULTIPLICATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,8 +762,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,6 +927,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -907,7 +1037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1038,6 +1168,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3615,13 +3786,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2917AC06-F268-489E-BB06-A8215E80D767}">
-  <dimension ref="F13:L22"/>
+  <dimension ref="B13:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="13" max="13" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="13" spans="6:10" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
@@ -3665,7 +3840,477 @@
         <v>5</v>
       </c>
     </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="H28" s="57">
+        <v>0</v>
+      </c>
+      <c r="I28" s="57">
+        <v>1</v>
+      </c>
+      <c r="J28" s="57">
+        <v>2</v>
+      </c>
+      <c r="K28" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G29" s="57">
+        <v>0</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G30" s="57">
+        <v>1</v>
+      </c>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G31" s="57">
+        <v>2</v>
+      </c>
+      <c r="H31" s="56"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G32" s="57">
+        <v>3</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+    </row>
+    <row r="33" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G33" s="57">
+        <v>4</v>
+      </c>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+    </row>
+    <row r="34" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="G34" s="57">
+        <v>5</v>
+      </c>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+    </row>
+    <row r="35" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="L35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="H39" s="57">
+        <v>0</v>
+      </c>
+      <c r="I39" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="57">
+        <v>0</v>
+      </c>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="57">
+        <v>1</v>
+      </c>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="57">
+        <v>2</v>
+      </c>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+    </row>
+    <row r="47" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="J47" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H50" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="J50" s="69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="H51" s="67">
+        <v>0</v>
+      </c>
+      <c r="I51" s="67">
+        <v>0</v>
+      </c>
+      <c r="J51" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="J52" s="71">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="J53" s="71">
+        <v>2</v>
+      </c>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="C55" s="62">
+        <v>0</v>
+      </c>
+      <c r="D55" s="62">
+        <v>1</v>
+      </c>
+      <c r="E55" s="62">
+        <v>2</v>
+      </c>
+      <c r="H55" s="62">
+        <v>0</v>
+      </c>
+      <c r="I55" s="62">
+        <v>1</v>
+      </c>
+      <c r="J55" s="62">
+        <v>2</v>
+      </c>
+      <c r="M55" s="62">
+        <v>0</v>
+      </c>
+      <c r="N55" s="62">
+        <v>1</v>
+      </c>
+      <c r="O55" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B56" s="62">
+        <v>0</v>
+      </c>
+      <c r="C56" s="36">
+        <v>1</v>
+      </c>
+      <c r="D56" s="36">
+        <v>4</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0</v>
+      </c>
+      <c r="G56" s="62">
+        <v>0</v>
+      </c>
+      <c r="H56" s="72">
+        <v>3</v>
+      </c>
+      <c r="I56" s="35">
+        <v>5</v>
+      </c>
+      <c r="J56" s="61">
+        <v>7</v>
+      </c>
+      <c r="L56" s="62">
+        <v>0</v>
+      </c>
+      <c r="M56" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="N56" s="61">
+        <v>0</v>
+      </c>
+      <c r="O56" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="62">
+        <v>1</v>
+      </c>
+      <c r="C57" s="61">
+        <v>-253</v>
+      </c>
+      <c r="D57" s="61">
+        <v>34</v>
+      </c>
+      <c r="E57" s="61">
+        <v>63</v>
+      </c>
+      <c r="G57" s="62">
+        <v>1</v>
+      </c>
+      <c r="H57" s="72">
+        <v>23</v>
+      </c>
+      <c r="I57" s="35">
+        <v>534</v>
+      </c>
+      <c r="J57" s="61">
+        <v>-6</v>
+      </c>
+      <c r="L57" s="62">
+        <v>1</v>
+      </c>
+      <c r="M57" s="61">
+        <v>0</v>
+      </c>
+      <c r="N57" s="61">
+        <v>0</v>
+      </c>
+      <c r="O57" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="62">
+        <v>2</v>
+      </c>
+      <c r="C58" s="61">
+        <v>3</v>
+      </c>
+      <c r="D58" s="61">
+        <v>-5</v>
+      </c>
+      <c r="E58" s="61">
+        <v>62</v>
+      </c>
+      <c r="G58" s="62">
+        <v>2</v>
+      </c>
+      <c r="H58" s="72">
+        <v>23</v>
+      </c>
+      <c r="I58" s="35">
+        <v>5</v>
+      </c>
+      <c r="J58" s="61">
+        <v>6</v>
+      </c>
+      <c r="L58" s="62">
+        <v>2</v>
+      </c>
+      <c r="M58" s="61">
+        <v>0</v>
+      </c>
+      <c r="N58" s="61">
+        <v>0</v>
+      </c>
+      <c r="O58" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B59" s="62">
+        <v>3</v>
+      </c>
+      <c r="C59" s="61">
+        <v>30</v>
+      </c>
+      <c r="D59" s="61">
+        <v>-5</v>
+      </c>
+      <c r="E59" s="61">
+        <v>2</v>
+      </c>
+      <c r="J59" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="L59" s="62">
+        <v>3</v>
+      </c>
+      <c r="M59" s="61">
+        <v>0</v>
+      </c>
+      <c r="N59" s="61">
+        <v>0</v>
+      </c>
+      <c r="O59" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="E60" s="63" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="D62" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="I62" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="N62" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="F64" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I64" s="2"/>
+      <c r="M64" s="62">
+        <v>0</v>
+      </c>
+      <c r="N64" s="62">
+        <v>1</v>
+      </c>
+      <c r="O64" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="F65" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L65" s="62">
+        <v>0</v>
+      </c>
+      <c r="M65" s="61">
+        <v>95</v>
+      </c>
+      <c r="N65" s="61">
+        <v>0</v>
+      </c>
+      <c r="O65" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="F66" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66" s="62">
+        <v>1</v>
+      </c>
+      <c r="M66" s="61">
+        <v>0</v>
+      </c>
+      <c r="N66" s="61">
+        <v>0</v>
+      </c>
+      <c r="O66" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="F67" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L67" s="62">
+        <v>2</v>
+      </c>
+      <c r="M67" s="61">
+        <v>0</v>
+      </c>
+      <c r="N67" s="61">
+        <v>0</v>
+      </c>
+      <c r="O67" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="F68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L68" s="62">
+        <v>3</v>
+      </c>
+      <c r="M68" s="61">
+        <v>0</v>
+      </c>
+      <c r="N68" s="61">
+        <v>0</v>
+      </c>
+      <c r="O68" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="N71" s="31" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/notes/DSA.xlsx
+++ b/src/notes/DSA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suman\eclipse-workspace\CC_B1_Java\src\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE79B707-58CD-4C44-B74F-748EF839194A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7B54E7-2456-40BE-8861-CCFC2E217F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{66337891-5822-498F-8DE1-20DD74AF1CC9}"/>
   </bookViews>
@@ -77,7 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>suman shekhar:</t>
         </r>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 MOST SIGNIFICANT BIT</t>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>suman shekhar:</t>
         </r>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 SIGN BIT</t>
@@ -125,7 +125,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>suman shekhar:</t>
         </r>
@@ -134,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 LEFT MOST BIT</t>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="146">
   <si>
     <t>A</t>
   </si>
@@ -602,13 +602,67 @@
   </si>
   <si>
     <t>MATRIX MULTIPLICATION</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>6,6</t>
+  </si>
+  <si>
+    <t>0,0 block 0</t>
+  </si>
+  <si>
+    <t>0,3 block 1</t>
+  </si>
+  <si>
+    <t>0,6 block 2</t>
+  </si>
+  <si>
+    <t>3,0 block 3</t>
+  </si>
+  <si>
+    <t>3,3 block 4</t>
+  </si>
+  <si>
+    <t>3,6 block 5</t>
+  </si>
+  <si>
+    <t>6,0 block 6</t>
+  </si>
+  <si>
+    <t>6,3 block 7</t>
+  </si>
+  <si>
+    <t>6,6 block 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,19 +773,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -795,6 +836,29 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -940,7 +1004,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1033,11 +1097,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1137,41 +1321,23 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1180,37 +1346,103 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2771,13 +3003,13 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C9" s="11">
@@ -2884,11 +3116,11 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C20" s="11">
@@ -2937,13 +3169,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="40" t="s">
@@ -3134,11 +3366,11 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="68"/>
       <c r="E48" s="38">
         <v>0</v>
       </c>
@@ -3278,8 +3510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB9A81D-9B76-442A-9969-1B3478FFB230}">
   <dimension ref="A14:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3316,10 +3548,10 @@
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.45">
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="53"/>
+      <c r="D16" s="70"/>
       <c r="G16" t="s">
         <v>77</v>
       </c>
@@ -3338,10 +3570,10 @@
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="70"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F25" s="10" t="s">
@@ -3476,10 +3708,10 @@
       <c r="C37" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="54" t="s">
+      <c r="I37" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="J37" s="54"/>
+      <c r="J37" s="71"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.45">
       <c r="F38" s="34">
@@ -3516,13 +3748,13 @@
       </c>
     </row>
     <row r="50" spans="6:16" x14ac:dyDescent="0.45">
-      <c r="H50" s="55" t="s">
+      <c r="H50" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
     </row>
     <row r="52" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F52" s="34">
@@ -3675,14 +3907,14 @@
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="52"/>
-      <c r="D79" s="52"/>
-      <c r="E79" s="52"/>
-      <c r="F79" s="52"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="43">
         <v>0</v>
       </c>
@@ -3786,10 +4018,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2917AC06-F268-489E-BB06-A8215E80D767}">
-  <dimension ref="B13:O71"/>
+  <dimension ref="B13:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3846,72 +4078,72 @@
       </c>
     </row>
     <row r="28" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="H28" s="57">
-        <v>0</v>
-      </c>
-      <c r="I28" s="57">
-        <v>1</v>
-      </c>
-      <c r="J28" s="57">
+      <c r="H28" s="51">
+        <v>0</v>
+      </c>
+      <c r="I28" s="51">
+        <v>1</v>
+      </c>
+      <c r="J28" s="51">
         <v>2</v>
       </c>
-      <c r="K28" s="57">
+      <c r="K28" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="G29" s="57">
-        <v>0</v>
-      </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
+      <c r="G29" s="51">
+        <v>0</v>
+      </c>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
     </row>
     <row r="30" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="G30" s="57">
-        <v>1</v>
-      </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
+      <c r="G30" s="51">
+        <v>1</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
     </row>
     <row r="31" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="G31" s="57">
+      <c r="G31" s="51">
         <v>2</v>
       </c>
-      <c r="H31" s="56"/>
+      <c r="H31" s="50"/>
       <c r="I31" s="41"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="G32" s="57">
+      <c r="G32" s="51">
         <v>3</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
     </row>
     <row r="33" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="G33" s="57">
+      <c r="G33" s="51">
         <v>4</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
     </row>
     <row r="34" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="G34" s="57">
+      <c r="G34" s="51">
         <v>5</v>
       </c>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" spans="6:12" x14ac:dyDescent="0.45">
       <c r="L35" t="s">
@@ -3919,10 +4151,10 @@
       </c>
     </row>
     <row r="39" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="H39" s="57">
-        <v>0</v>
-      </c>
-      <c r="I39" s="57">
+      <c r="H39" s="51">
+        <v>0</v>
+      </c>
+      <c r="I39" s="51">
         <v>1</v>
       </c>
     </row>
@@ -3930,102 +4162,102 @@
       <c r="F40" t="s">
         <v>103</v>
       </c>
-      <c r="G40" s="57">
-        <v>0</v>
-      </c>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
+      <c r="G40" s="51">
+        <v>0</v>
+      </c>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
     </row>
     <row r="41" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F41" t="s">
         <v>104</v>
       </c>
-      <c r="G41" s="57">
-        <v>1</v>
-      </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
+      <c r="G41" s="51">
+        <v>1</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
     </row>
     <row r="42" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F42" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="57">
+      <c r="G42" s="51">
         <v>2</v>
       </c>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
     </row>
     <row r="47" spans="6:12" x14ac:dyDescent="0.45">
-      <c r="J47" s="64" t="s">
+      <c r="J47" s="58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H50" s="68" t="s">
+      <c r="H50" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="68" t="s">
+      <c r="I50" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J50" s="69" t="s">
+      <c r="J50" s="63" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H51" s="67">
-        <v>0</v>
-      </c>
-      <c r="I51" s="67">
-        <v>0</v>
-      </c>
-      <c r="J51" s="70">
+      <c r="H51" s="61">
+        <v>0</v>
+      </c>
+      <c r="I51" s="61">
+        <v>0</v>
+      </c>
+      <c r="J51" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="J52" s="71">
+      <c r="J52" s="65">
         <v>1</v>
       </c>
       <c r="M52" s="11"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="J53" s="71">
+      <c r="J53" s="65">
         <v>2</v>
       </c>
       <c r="M53" s="11"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="C55" s="62">
-        <v>0</v>
-      </c>
-      <c r="D55" s="62">
-        <v>1</v>
-      </c>
-      <c r="E55" s="62">
+      <c r="C55" s="56">
+        <v>0</v>
+      </c>
+      <c r="D55" s="56">
+        <v>1</v>
+      </c>
+      <c r="E55" s="56">
         <v>2</v>
       </c>
-      <c r="H55" s="62">
-        <v>0</v>
-      </c>
-      <c r="I55" s="62">
-        <v>1</v>
-      </c>
-      <c r="J55" s="62">
+      <c r="H55" s="56">
+        <v>0</v>
+      </c>
+      <c r="I55" s="56">
+        <v>1</v>
+      </c>
+      <c r="J55" s="56">
         <v>2</v>
       </c>
-      <c r="M55" s="62">
-        <v>0</v>
-      </c>
-      <c r="N55" s="62">
-        <v>1</v>
-      </c>
-      <c r="O55" s="62">
+      <c r="M55" s="56">
+        <v>0</v>
+      </c>
+      <c r="N55" s="56">
+        <v>1</v>
+      </c>
+      <c r="O55" s="56">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B56" s="62">
+      <c r="B56" s="56">
         <v>0</v>
       </c>
       <c r="C56" s="36">
@@ -4037,138 +4269,138 @@
       <c r="E56" s="36">
         <v>0</v>
       </c>
-      <c r="G56" s="62">
-        <v>0</v>
-      </c>
-      <c r="H56" s="72">
+      <c r="G56" s="56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="66">
         <v>3</v>
       </c>
       <c r="I56" s="35">
         <v>5</v>
       </c>
-      <c r="J56" s="61">
+      <c r="J56" s="55">
         <v>7</v>
       </c>
-      <c r="L56" s="62">
-        <v>0</v>
-      </c>
-      <c r="M56" s="61" t="s">
+      <c r="L56" s="56">
+        <v>0</v>
+      </c>
+      <c r="M56" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="N56" s="61">
-        <v>0</v>
-      </c>
-      <c r="O56" s="61">
+      <c r="N56" s="55">
+        <v>0</v>
+      </c>
+      <c r="O56" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B57" s="62">
-        <v>1</v>
-      </c>
-      <c r="C57" s="61">
+      <c r="B57" s="56">
+        <v>1</v>
+      </c>
+      <c r="C57" s="55">
         <v>-253</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="55">
         <v>34</v>
       </c>
-      <c r="E57" s="61">
+      <c r="E57" s="55">
         <v>63</v>
       </c>
-      <c r="G57" s="62">
-        <v>1</v>
-      </c>
-      <c r="H57" s="72">
+      <c r="G57" s="56">
+        <v>1</v>
+      </c>
+      <c r="H57" s="66">
         <v>23</v>
       </c>
       <c r="I57" s="35">
         <v>534</v>
       </c>
-      <c r="J57" s="61">
+      <c r="J57" s="55">
         <v>-6</v>
       </c>
-      <c r="L57" s="62">
-        <v>1</v>
-      </c>
-      <c r="M57" s="61">
-        <v>0</v>
-      </c>
-      <c r="N57" s="61">
-        <v>0</v>
-      </c>
-      <c r="O57" s="61">
+      <c r="L57" s="56">
+        <v>1</v>
+      </c>
+      <c r="M57" s="55">
+        <v>0</v>
+      </c>
+      <c r="N57" s="55">
+        <v>0</v>
+      </c>
+      <c r="O57" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B58" s="62">
+      <c r="B58" s="56">
         <v>2</v>
       </c>
-      <c r="C58" s="61">
+      <c r="C58" s="55">
         <v>3</v>
       </c>
-      <c r="D58" s="61">
+      <c r="D58" s="55">
         <v>-5</v>
       </c>
-      <c r="E58" s="61">
+      <c r="E58" s="55">
         <v>62</v>
       </c>
-      <c r="G58" s="62">
+      <c r="G58" s="56">
         <v>2</v>
       </c>
-      <c r="H58" s="72">
+      <c r="H58" s="66">
         <v>23</v>
       </c>
       <c r="I58" s="35">
         <v>5</v>
       </c>
-      <c r="J58" s="61">
+      <c r="J58" s="55">
         <v>6</v>
       </c>
-      <c r="L58" s="62">
+      <c r="L58" s="56">
         <v>2</v>
       </c>
-      <c r="M58" s="61">
-        <v>0</v>
-      </c>
-      <c r="N58" s="61">
-        <v>0</v>
-      </c>
-      <c r="O58" s="61">
+      <c r="M58" s="55">
+        <v>0</v>
+      </c>
+      <c r="N58" s="55">
+        <v>0</v>
+      </c>
+      <c r="O58" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B59" s="62">
+      <c r="B59" s="56">
         <v>3</v>
       </c>
-      <c r="C59" s="61">
+      <c r="C59" s="55">
         <v>30</v>
       </c>
-      <c r="D59" s="61">
+      <c r="D59" s="55">
         <v>-5</v>
       </c>
-      <c r="E59" s="61">
+      <c r="E59" s="55">
         <v>2</v>
       </c>
-      <c r="J59" s="63" t="s">
+      <c r="J59" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="L59" s="62">
+      <c r="L59" s="56">
         <v>3</v>
       </c>
-      <c r="M59" s="61">
-        <v>0</v>
-      </c>
-      <c r="N59" s="61">
-        <v>0</v>
-      </c>
-      <c r="O59" s="61">
+      <c r="M59" s="55">
+        <v>0</v>
+      </c>
+      <c r="N59" s="55">
+        <v>0</v>
+      </c>
+      <c r="O59" s="55">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="E60" s="63" t="s">
+      <c r="E60" s="57" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4192,95 +4424,95 @@
         <v>107</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="M64" s="62">
-        <v>0</v>
-      </c>
-      <c r="N64" s="62">
-        <v>1</v>
-      </c>
-      <c r="O64" s="62">
+      <c r="M64" s="56">
+        <v>0</v>
+      </c>
+      <c r="N64" s="56">
+        <v>1</v>
+      </c>
+      <c r="O64" s="56">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="6:15" x14ac:dyDescent="0.45">
-      <c r="F65" s="65" t="s">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="F65" s="59" t="s">
         <v>112</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H65" s="66" t="s">
+      <c r="H65" s="60" t="s">
         <v>113</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="L65" s="62">
-        <v>0</v>
-      </c>
-      <c r="M65" s="61">
+      <c r="L65" s="56">
+        <v>0</v>
+      </c>
+      <c r="M65" s="55">
         <v>95</v>
       </c>
-      <c r="N65" s="61">
-        <v>0</v>
-      </c>
-      <c r="O65" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="6:15" x14ac:dyDescent="0.45">
-      <c r="F66" s="65" t="s">
+      <c r="N65" s="55">
+        <v>0</v>
+      </c>
+      <c r="O65" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="F66" s="59" t="s">
         <v>113</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H66" s="66" t="s">
+      <c r="H66" s="60" t="s">
         <v>125</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="L66" s="62">
-        <v>1</v>
-      </c>
-      <c r="M66" s="61">
-        <v>0</v>
-      </c>
-      <c r="N66" s="61">
-        <v>0</v>
-      </c>
-      <c r="O66" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="6:15" x14ac:dyDescent="0.45">
-      <c r="F67" s="65" t="s">
+      <c r="L66" s="56">
+        <v>1</v>
+      </c>
+      <c r="M66" s="55">
+        <v>0</v>
+      </c>
+      <c r="N66" s="55">
+        <v>0</v>
+      </c>
+      <c r="O66" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="F67" s="59" t="s">
         <v>114</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H67" s="66" t="s">
+      <c r="H67" s="60" t="s">
         <v>126</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L67" s="62">
+      <c r="L67" s="56">
         <v>2</v>
       </c>
-      <c r="M67" s="61">
-        <v>0</v>
-      </c>
-      <c r="N67" s="61">
-        <v>0</v>
-      </c>
-      <c r="O67" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="M67" s="55">
+        <v>0</v>
+      </c>
+      <c r="N67" s="55">
+        <v>0</v>
+      </c>
+      <c r="O67" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.45">
       <c r="F68" s="2" t="s">
         <v>123</v>
       </c>
@@ -4291,23 +4523,529 @@
       <c r="I68" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L68" s="62">
+      <c r="L68" s="56">
         <v>3</v>
       </c>
-      <c r="M68" s="61">
-        <v>0</v>
-      </c>
-      <c r="N68" s="61">
-        <v>0</v>
-      </c>
-      <c r="O68" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="6:15" x14ac:dyDescent="0.45">
+      <c r="M68" s="55">
+        <v>0</v>
+      </c>
+      <c r="N68" s="55">
+        <v>0</v>
+      </c>
+      <c r="O68" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.45">
       <c r="N71" s="31" t="s">
         <v>110</v>
       </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="I76" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C78" s="73">
+        <v>0</v>
+      </c>
+      <c r="D78" s="73">
+        <v>1</v>
+      </c>
+      <c r="E78" s="73">
+        <v>2</v>
+      </c>
+      <c r="F78" s="73">
+        <v>3</v>
+      </c>
+      <c r="G78" s="73">
+        <v>4</v>
+      </c>
+      <c r="H78" s="73">
+        <v>5</v>
+      </c>
+      <c r="I78" s="73">
+        <v>6</v>
+      </c>
+      <c r="J78" s="73">
+        <v>7</v>
+      </c>
+      <c r="K78" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="74">
+        <v>0</v>
+      </c>
+      <c r="C79" s="75"/>
+      <c r="D79" s="76"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="76"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="76"/>
+      <c r="K79" s="77"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="74">
+        <v>1</v>
+      </c>
+      <c r="C80" s="78"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="79"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="78"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="79"/>
+    </row>
+    <row r="81" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B81" s="74">
+        <v>2</v>
+      </c>
+      <c r="C81" s="80"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="82"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="80"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="82"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B82" s="74">
+        <v>3</v>
+      </c>
+      <c r="C82" s="75"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="76"/>
+      <c r="K82" s="77"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B83" s="74">
+        <v>4</v>
+      </c>
+      <c r="C83" s="78"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="50"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="78"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="79"/>
+    </row>
+    <row r="84" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B84" s="74">
+        <v>5</v>
+      </c>
+      <c r="C84" s="80"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="80"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="82"/>
+      <c r="I84" s="80"/>
+      <c r="J84" s="81"/>
+      <c r="K84" s="82"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B85" s="74">
+        <v>6</v>
+      </c>
+      <c r="C85" s="75"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="76"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="76"/>
+      <c r="K85" s="77"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B86" s="74">
+        <v>7</v>
+      </c>
+      <c r="C86" s="78"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="50"/>
+      <c r="K86" s="79"/>
+    </row>
+    <row r="87" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B87" s="74">
+        <v>8</v>
+      </c>
+      <c r="C87" s="80"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="82"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="82"/>
+      <c r="I87" s="80"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="82"/>
+    </row>
+    <row r="91" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C91" s="73">
+        <v>0</v>
+      </c>
+      <c r="D91" s="73">
+        <v>1</v>
+      </c>
+      <c r="E91" s="73">
+        <v>2</v>
+      </c>
+      <c r="F91" s="73">
+        <v>3</v>
+      </c>
+      <c r="G91" s="73">
+        <v>4</v>
+      </c>
+      <c r="H91" s="73">
+        <v>5</v>
+      </c>
+      <c r="I91" s="73">
+        <v>6</v>
+      </c>
+      <c r="J91" s="73">
+        <v>7</v>
+      </c>
+      <c r="K91" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B92" s="74">
+        <v>0</v>
+      </c>
+      <c r="C92" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="84"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="G92" s="84"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="J92" s="86"/>
+      <c r="K92" s="87"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B93" s="74">
+        <v>1</v>
+      </c>
+      <c r="C93" s="88"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="88"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="90"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="91"/>
+    </row>
+    <row r="94" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B94" s="74">
+        <v>2</v>
+      </c>
+      <c r="C94" s="92"/>
+      <c r="D94" s="93"/>
+      <c r="E94" s="94"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="93"/>
+      <c r="H94" s="94"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="95"/>
+      <c r="K94" s="96"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B95" s="74">
+        <v>3</v>
+      </c>
+      <c r="C95" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D95" s="84"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G95" s="84"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="J95" s="86"/>
+      <c r="K95" s="87"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B96" s="74">
+        <v>4</v>
+      </c>
+      <c r="C96" s="88"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="90"/>
+      <c r="F96" s="88"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="90"/>
+      <c r="I96" s="88"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="91"/>
+    </row>
+    <row r="97" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B97" s="74">
+        <v>5</v>
+      </c>
+      <c r="C97" s="92"/>
+      <c r="D97" s="93"/>
+      <c r="E97" s="94"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="93"/>
+      <c r="H97" s="94"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="95"/>
+      <c r="K97" s="96"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B98" s="74">
+        <v>6</v>
+      </c>
+      <c r="C98" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="D98" s="84"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="G98" s="84"/>
+      <c r="H98" s="85"/>
+      <c r="I98" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="J98" s="86"/>
+      <c r="K98" s="87"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B99" s="74">
+        <v>7</v>
+      </c>
+      <c r="C99" s="97"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="91"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="91"/>
+      <c r="I99" s="97"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="91"/>
+    </row>
+    <row r="100" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B100" s="74">
+        <v>8</v>
+      </c>
+      <c r="C100" s="98"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="98"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="96"/>
+      <c r="I100" s="98"/>
+      <c r="J100" s="95"/>
+      <c r="K100" s="96"/>
+    </row>
+    <row r="105" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C105" s="73">
+        <v>0</v>
+      </c>
+      <c r="D105" s="73">
+        <v>1</v>
+      </c>
+      <c r="E105" s="73">
+        <v>2</v>
+      </c>
+      <c r="F105" s="73">
+        <v>3</v>
+      </c>
+      <c r="G105" s="73">
+        <v>4</v>
+      </c>
+      <c r="H105" s="73">
+        <v>5</v>
+      </c>
+      <c r="I105" s="73">
+        <v>6</v>
+      </c>
+      <c r="J105" s="73">
+        <v>7</v>
+      </c>
+      <c r="K105" s="73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B106" s="74">
+        <v>0</v>
+      </c>
+      <c r="C106" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D106" s="84"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="G106" s="84"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="J106" s="86"/>
+      <c r="K106" s="87"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B107" s="74">
+        <v>1</v>
+      </c>
+      <c r="C107" s="88"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="90"/>
+      <c r="F107" s="88"/>
+      <c r="G107" s="89"/>
+      <c r="H107" s="90"/>
+      <c r="I107" s="88"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="91"/>
+    </row>
+    <row r="108" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B108" s="74">
+        <v>2</v>
+      </c>
+      <c r="C108" s="92"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="94"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="95"/>
+      <c r="K108" s="96"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B109" s="74">
+        <v>3</v>
+      </c>
+      <c r="C109" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D109" s="84"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="G109" s="84"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="J109" s="86"/>
+      <c r="K109" s="87"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B110" s="74">
+        <v>4</v>
+      </c>
+      <c r="C110" s="88"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="90"/>
+      <c r="F110" s="88"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="90"/>
+      <c r="I110" s="88"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="91"/>
+    </row>
+    <row r="111" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B111" s="74">
+        <v>5</v>
+      </c>
+      <c r="C111" s="92"/>
+      <c r="D111" s="93"/>
+      <c r="E111" s="94"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="93"/>
+      <c r="H111" s="94"/>
+      <c r="I111" s="92"/>
+      <c r="J111" s="95"/>
+      <c r="K111" s="96"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B112" s="74">
+        <v>6</v>
+      </c>
+      <c r="C112" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="84"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="83" t="s">
+        <v>144</v>
+      </c>
+      <c r="G112" s="84"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="J112" s="86"/>
+      <c r="K112" s="87"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B113" s="74">
+        <v>7</v>
+      </c>
+      <c r="C113" s="97"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="97"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="91"/>
+      <c r="I113" s="97"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="91"/>
+    </row>
+    <row r="114" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B114" s="74">
+        <v>8</v>
+      </c>
+      <c r="C114" s="98"/>
+      <c r="D114" s="95"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="98"/>
+      <c r="G114" s="95"/>
+      <c r="H114" s="96"/>
+      <c r="I114" s="98"/>
+      <c r="J114" s="95"/>
+      <c r="K114" s="96"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
